--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
@@ -1,75 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>image_name</t>
-  </si>
-  <si>
-    <t>dice</t>
-  </si>
-  <si>
-    <t>subin</t>
-  </si>
-  <si>
-    <t>point_rmse</t>
-  </si>
-  <si>
-    <t>case2.jpg</t>
-  </si>
-  <si>
-    <t>case4.jpg</t>
-  </si>
-  <si>
-    <t>case5.jpg</t>
-  </si>
-  <si>
-    <t>case3.jpg</t>
-  </si>
-  <si>
-    <t>case1.jpg</t>
-  </si>
-  <si>
-    <t>case6.jpg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,130 +420,232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>image_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>subin</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>point_rmse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>case3.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.06763451710286958</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4884602059970655</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1005.831993923439</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>case9.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05031853809096468</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4196831775906419</v>
+      </c>
+      <c r="E3" t="n">
+        <v>845.4880247525685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>case5.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.04493603635220179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4457239877454358</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1061.463376664499</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>case2.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05081719663440776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4213037564408011</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1011.072944945121</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0.7240690863858565</v>
-      </c>
-      <c r="D2">
-        <v>0.8130642558342009</v>
-      </c>
-      <c r="E2">
-        <v>519.3197473618734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>case8.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05458080121326949</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4700800582229085</v>
+      </c>
+      <c r="E6" t="n">
+        <v>695.8595404246463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.8786579050141783</v>
-      </c>
-      <c r="D3">
-        <v>0.9537967655626187</v>
-      </c>
-      <c r="E3">
-        <v>9.617692030835672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>case10.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06574975318673333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4622890772465756</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1353.821627837286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>0.642386908680523</v>
-      </c>
-      <c r="D4">
-        <v>0.7678743444996226</v>
-      </c>
-      <c r="E4">
-        <v>6.041522986797286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>case4.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03731361884302099</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2781112797509002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1286.095641855612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0.6471994481567488</v>
-      </c>
-      <c r="D5">
-        <v>0.7451148121233038</v>
-      </c>
-      <c r="E5">
-        <v>501.8371249718379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>case6.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06133447917075996</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4501708531706831</v>
+      </c>
+      <c r="E9" t="n">
+        <v>980.3042894938285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>0.6116304864522263</v>
-      </c>
-      <c r="D6">
-        <v>0.7498459501536037</v>
-      </c>
-      <c r="E6">
-        <v>20.0124960961895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>case1.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04289540091315327</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4156872939276141</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1352.929414271121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>0.8703297560214833</v>
-      </c>
-      <c r="D7">
-        <v>0.9397294074453379</v>
-      </c>
-      <c r="E7">
-        <v>18.56071119327058</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>case7.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03781437852117422</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4312220227202963</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1308.041474877613</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06763451710286958</v>
+        <v>0.1335086622547012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4884602059970655</v>
+        <v>0.3432971339966152</v>
       </c>
       <c r="E2" t="n">
-        <v>1005.831993923439</v>
+        <v>94.82615672903758</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05031853809096468</v>
+        <v>0.12036343746847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4196831775906419</v>
+        <v>0.3322636814485131</v>
       </c>
       <c r="E3" t="n">
-        <v>845.4880247525685</v>
+        <v>734.0844638050855</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04493603635220179</v>
+        <v>0.1571161663173262</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4457239877454358</v>
+        <v>0.3554101178506651</v>
       </c>
       <c r="E4" t="n">
-        <v>1061.463376664499</v>
+        <v>1011.375548448745</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05081719663440776</v>
+        <v>0.1520010534525896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4213037564408011</v>
+        <v>0.304335801140833</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.072944945121</v>
+        <v>472.7811332953124</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.05458080121326949</v>
+        <v>0.1990259145004823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4700800582229085</v>
+        <v>0.4669105009289549</v>
       </c>
       <c r="E6" t="n">
-        <v>695.8595404246463</v>
+        <v>84.09518416651456</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06574975318673333</v>
+        <v>0.3062705035337634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4622890772465756</v>
+        <v>0.5815079885948826</v>
       </c>
       <c r="E7" t="n">
-        <v>1353.821627837286</v>
+        <v>976.2950373734366</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03731361884302099</v>
+        <v>0.2467005228229443</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2781112797509002</v>
+        <v>0.4695816704909681</v>
       </c>
       <c r="E8" t="n">
-        <v>1286.095641855612</v>
+        <v>11.40175425099138</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.06133447917075996</v>
+        <v>0.2287552447552448</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4501708531706831</v>
+        <v>0.5040021141822475</v>
       </c>
       <c r="E9" t="n">
-        <v>980.3042894938285</v>
+        <v>73.00684899377592</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04289540091315327</v>
+        <v>0.01512382181127477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4156872939276141</v>
+        <v>0.04512990791762799</v>
       </c>
       <c r="E10" t="n">
-        <v>1352.929414271121</v>
+        <v>516.1395160225576</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.03781437852117422</v>
+        <v>0.1074885230562297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4312220227202963</v>
+        <v>0.271213312300578</v>
       </c>
       <c r="E11" t="n">
-        <v>1308.041474877613</v>
+        <v>11.40175425099138</v>
       </c>
     </row>
   </sheetData>

--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1335086622547012</v>
+        <v>0.1832487066487833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3432971339966152</v>
+        <v>0.3626672408313593</v>
       </c>
       <c r="E2" t="n">
-        <v>94.82615672903758</v>
+        <v>642.384619990236</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.12036343746847</v>
+        <v>0.06690275028116258</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3322636814485131</v>
+        <v>0.1713528361393473</v>
       </c>
       <c r="E3" t="n">
-        <v>734.0844638050855</v>
+        <v>956.7037158911844</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1571161663173262</v>
+        <v>0.1506048800492106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3554101178506651</v>
+        <v>0.33644927128001</v>
       </c>
       <c r="E4" t="n">
-        <v>1011.375548448745</v>
+        <v>934.53758618902</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1520010534525896</v>
+        <v>0.0673412345893008</v>
       </c>
       <c r="D5" t="n">
-        <v>0.304335801140833</v>
+        <v>0.2416427654501738</v>
       </c>
       <c r="E5" t="n">
-        <v>472.7811332953124</v>
+        <v>801.0505602020387</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1990259145004823</v>
+        <v>0.2837708250757566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4669105009289549</v>
+        <v>0.487902656656355</v>
       </c>
       <c r="E6" t="n">
-        <v>84.09518416651456</v>
+        <v>268.8047618625831</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3062705035337634</v>
+        <v>0.4707904106337527</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5815079885948826</v>
+        <v>0.6663932322215478</v>
       </c>
       <c r="E7" t="n">
-        <v>976.2950373734366</v>
+        <v>56.58621740318043</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2467005228229443</v>
+        <v>0.1780757468830863</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4695816704909681</v>
+        <v>0.37651764698797</v>
       </c>
       <c r="E8" t="n">
-        <v>11.40175425099138</v>
+        <v>624.1157745162351</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2287552447552448</v>
+        <v>0.3428466796875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5040021141822475</v>
+        <v>0.5241345641811002</v>
       </c>
       <c r="E9" t="n">
-        <v>73.00684899377592</v>
+        <v>68.06247130394253</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01512382181127477</v>
+        <v>0.02206287065390131</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04512990791762799</v>
+        <v>0.08116461374807248</v>
       </c>
       <c r="E10" t="n">
-        <v>516.1395160225576</v>
+        <v>193.0815889721234</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1074885230562297</v>
+        <v>0.04951977963279115</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271213312300578</v>
+        <v>0.1645167060294949</v>
       </c>
       <c r="E11" t="n">
-        <v>11.40175425099138</v>
+        <v>393.8686329221965</v>
       </c>
     </row>
   </sheetData>

--- a/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
+++ b/MFCN_SMC/output/output_inference_segmentation_endtoendFCDenseNet_Whole_RANZCR/second_output_90/FCDenseNet/Second_image_rmse_jpg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>case3.jpg</t>
+          <t>case63.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1832487066487833</v>
+        <v>0.4083127192430785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3626672408313593</v>
+        <v>0.652674377811546</v>
       </c>
       <c r="E2" t="n">
-        <v>642.384619990236</v>
+        <v>24.9899979991996</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>case9.jpg</t>
+          <t>case20.jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06690275028116258</v>
+        <v>0.4662036946725708</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1713528361393473</v>
+        <v>0.7241455227515803</v>
       </c>
       <c r="E3" t="n">
-        <v>956.7037158911844</v>
+        <v>18.12456896039186</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>case5.jpg</t>
+          <t>case124.jpg</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1506048800492106</v>
+        <v>0.5128184268063253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33644927128001</v>
+        <v>0.7570997909794555</v>
       </c>
       <c r="E4" t="n">
-        <v>934.53758618902</v>
+        <v>9.899494936611665</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>case2.jpg</t>
+          <t>case73.jpg</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0673412345893008</v>
+        <v>0.3358882008302502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2416427654501738</v>
+        <v>0.5861065974773112</v>
       </c>
       <c r="E5" t="n">
-        <v>801.0505602020387</v>
+        <v>71.11961754677819</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>case8.jpg</t>
+          <t>case76.jpg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2837708250757566</v>
+        <v>0.505953488372093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.487902656656355</v>
+        <v>0.7482434107028898</v>
       </c>
       <c r="E6" t="n">
-        <v>268.8047618625831</v>
+        <v>0.7071067811865476</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>case10.jpg</t>
+          <t>case23.jpg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4707904106337527</v>
+        <v>0.5533373549554664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6663932322215478</v>
+        <v>0.7869765948355956</v>
       </c>
       <c r="E7" t="n">
-        <v>56.58621740318043</v>
+        <v>19.6468827043885</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>case4.jpg</t>
+          <t>case22.jpg</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1780757468830863</v>
+        <v>0.3169317647058824</v>
       </c>
       <c r="D8" t="n">
-        <v>0.37651764698797</v>
+        <v>0.5848643716118257</v>
       </c>
       <c r="E8" t="n">
-        <v>624.1157745162351</v>
+        <v>19.30025906561878</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>case6.jpg</t>
+          <t>case43.jpg</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3428466796875</v>
+        <v>0.4460941828254847</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5241345641811002</v>
+        <v>0.7231584272608211</v>
       </c>
       <c r="E9" t="n">
-        <v>68.06247130394253</v>
+        <v>22.67156809750927</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>case1.jpg</t>
+          <t>case12.jpg</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02206287065390131</v>
+        <v>0.4006805614632071</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08116461374807248</v>
+        <v>0.6643643955831217</v>
       </c>
       <c r="E10" t="n">
-        <v>193.0815889721234</v>
+        <v>220.8540241879237</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,2677 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>case111.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5853393085787452</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8131937593622982</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46.64761515876241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>case29.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2788254249211428</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5184699431139017</v>
+      </c>
+      <c r="E12" t="n">
+        <v>458.5460718401151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>case140.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4939094916066646</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7312023364072833</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.242640687119285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>case32.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3046144859813084</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4421256465007036</v>
+      </c>
+      <c r="E14" t="n">
+        <v>124.9639948145065</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>case105.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.56220818456468</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7910190190084474</v>
+      </c>
+      <c r="E15" t="n">
+        <v>393.2047812527208</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>case58.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4728189036276328</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.719778689675911</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.778174593052023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>case48.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4085486121133401</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5838284963434153</v>
+      </c>
+      <c r="E17" t="n">
+        <v>102.0220564387917</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>case127.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6319884642556445</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8427724644985046</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11.31370849898476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>case91.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6073800526737662</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8311526626432097</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17.0293863659264</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>case109.jpg</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5219579511323971</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7645567316095813</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28.29310870159022</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>case17.jpg</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4154783712270871</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7000039784318454</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>case47.jpg</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4943822155030236</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7478326218675955</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.041522986797286</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>case136.jpg</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3548860151979736</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6437654531825268</v>
+      </c>
+      <c r="E23" t="n">
+        <v>18.12456896039186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>case131.jpg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3929504527704683</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6358077115846481</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.34166406412633</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>case133.jpg</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4192652712516019</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6944712429599742</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30.46309242345563</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>case74.jpg</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5910981172971747</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8082644292761055</v>
+      </c>
+      <c r="E26" t="n">
+        <v>63.12289600454022</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>case79.jpg</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5416192772545987</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7883272804961279</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28.31960451701259</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>case44.jpg</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4971158460014906</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7459638634539673</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.57737973711325</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>case88.jpg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5054191436202292</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7329706541525165</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.121320343559642</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>case138.jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4010260338270527</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6495154227073676</v>
+      </c>
+      <c r="E30" t="n">
+        <v>22.90196498119757</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>case56.jpg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5258652317475847</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7790387689165106</v>
+      </c>
+      <c r="E31" t="n">
+        <v>33.97057550292606</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>case119.jpg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4362979789154872</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6907300710683262</v>
+      </c>
+      <c r="E32" t="n">
+        <v>17.10263137648707</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>case82.jpg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5569711837389918</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7882033818978957</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.31370849898476</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>case66.jpg</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3613784427371164</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6529870883979396</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.242640687119285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>case125.jpg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5831276360752222</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7795130807463944</v>
+      </c>
+      <c r="E35" t="n">
+        <v>34.8209706929603</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>case28.jpg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5688647855589615</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.804320063940225</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21.64486082191336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>case51.jpg</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4754802849461197</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7235838957146168</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.33578404875463</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>case144.jpg</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4600431078723186</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7044977362903093</v>
+      </c>
+      <c r="E38" t="n">
+        <v>186.7632190769907</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>case97.jpg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.2631857792717905</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5538327530476015</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>case139.jpg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5175456797959208</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7281508419913858</v>
+      </c>
+      <c r="E40" t="n">
+        <v>39.82461550347976</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>case55.jpg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4872871000988132</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7378150617860912</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.29822128134704</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>case106.jpg</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4211096197877308</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.697093559319337</v>
+      </c>
+      <c r="E42" t="n">
+        <v>45.26035793053342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>case116.jpg</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.482627970513944</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7458478350992522</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16.97056274847714</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>case69.jpg</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4522092061476908</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.7051382801224811</v>
+      </c>
+      <c r="E44" t="n">
+        <v>36.53080891521566</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>case61.jpg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5567795319559369</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7919296261461328</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.97056274847714</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>case117.jpg</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4966370558375635</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.7463080928768513</v>
+      </c>
+      <c r="E46" t="n">
+        <v>46.17899955607527</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>case98.jpg</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5122773666462986</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7753046422087367</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>case72.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3289278935729336</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.613977538460882</v>
+      </c>
+      <c r="E48" t="n">
+        <v>35.16390194503448</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>case41.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.62366666228249</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8371728672404455</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17.4928556845359</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>case15.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6290342610351441</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8541836557690412</v>
+      </c>
+      <c r="E50" t="n">
+        <v>21.5870331449229</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>case99.jpg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6248290710191732</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8463268728769215</v>
+      </c>
+      <c r="E51" t="n">
+        <v>39.82461550347976</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>case94.jpg</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.62932798289267</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8531805051902281</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11.40175425099138</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>case142.jpg</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6149230598915089</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.842265945214139</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8.514693182963201</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>case87.jpg</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4210560893487723</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6978932417267256</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11.31370849898476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>case130.jpg</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4736944978336645</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.7050857566317079</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13.5092560861063</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>case89.jpg</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4914919570692666</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7451056482426799</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18.66815470259447</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>case3.jpg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.3990064429355489</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6793649810298046</v>
+      </c>
+      <c r="E57" t="n">
+        <v>56.58621740318043</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>case37.jpg</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4333867688037268</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6978871120932515</v>
+      </c>
+      <c r="E58" t="n">
+        <v>16.26345596729059</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>case49.jpg</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.340862329111609</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6421162549538144</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6.363961030678928</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>case35.jpg</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.3751392004648085</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5602456701634495</v>
+      </c>
+      <c r="E60" t="n">
+        <v>574.7664743180486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>case143.jpg</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4680301711633305</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.72201968943477</v>
+      </c>
+      <c r="E61" t="n">
+        <v>35.55980877338909</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>case128.jpg</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6190836186833875</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8458248454643282</v>
+      </c>
+      <c r="E62" t="n">
+        <v>28.71410803072246</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>case46.jpg</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4570159690068978</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.6790617946463147</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.64911064067352</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>case134.jpg</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5871879683704584</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8191255357786176</v>
+      </c>
+      <c r="E64" t="n">
+        <v>45.39273069556402</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>case53.jpg</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5378124659959839</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7817052416471257</v>
+      </c>
+      <c r="E65" t="n">
+        <v>66.21178142898739</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>case92.jpg</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4096933279305812</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6916990819062047</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>case19.jpg</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4411559077138196</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6796969060953283</v>
+      </c>
+      <c r="E67" t="n">
+        <v>40.8166632639171</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>case9.jpg</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2518548340714327</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4877240459540331</v>
+      </c>
+      <c r="E68" t="n">
+        <v>50.59644256269407</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>case148.jpg</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6225590068032074</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.828356738481795</v>
+      </c>
+      <c r="E69" t="n">
+        <v>50.95586325438909</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>case67.jpg</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5966694124340803</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8194654918892403</v>
+      </c>
+      <c r="E70" t="n">
+        <v>39.65476011779671</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>case31.jpg</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.4909849790094397</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7393625347681181</v>
+      </c>
+      <c r="E71" t="n">
+        <v>85.5949764881094</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>case90.jpg</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4839506628072052</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7432635980266029</v>
+      </c>
+      <c r="E72" t="n">
+        <v>365.0342449688796</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>case11.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4190268645500658</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6855122692126586</v>
+      </c>
+      <c r="E73" t="n">
+        <v>33.35416016031584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>case57.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4865862840757893</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7354474068587684</v>
+      </c>
+      <c r="E74" t="n">
+        <v>66.51691514193965</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>case121.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4600496861046766</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7150720882836802</v>
+      </c>
+      <c r="E75" t="n">
+        <v>30.73271872125862</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>case114.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4585546950009601</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7002647065914354</v>
+      </c>
+      <c r="E76" t="n">
+        <v>294.2108087749327</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>case5.jpg</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5720916867443249</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7934794834898091</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12.08304597359457</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>case38.jpg</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.5045563199980586</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7159089321128262</v>
+      </c>
+      <c r="E78" t="n">
+        <v>483.8930666996583</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>case30.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.2730161042176846</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5468087979739888</v>
+      </c>
+      <c r="E79" t="n">
+        <v>45.52471856036015</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>case149.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5902373488580385</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8001061293595345</v>
+      </c>
+      <c r="E80" t="n">
+        <v>34.40930106817051</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>case2.jpg</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.3302971242194025</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6198659714395213</v>
+      </c>
+      <c r="E81" t="n">
+        <v>22.90196498119757</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>case108.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3847092582209176</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6257988422520333</v>
+      </c>
+      <c r="E82" t="n">
+        <v>559.7825470662693</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>case68.jpg</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6188290453488831</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.8326377702202643</v>
+      </c>
+      <c r="E83" t="n">
+        <v>82.56209784156408</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>case93.jpg</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.620951923461831</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8288524568199381</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28.36370920736567</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>case39.jpg</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4541116005873715</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7036298732470079</v>
+      </c>
+      <c r="E85" t="n">
+        <v>56.85068161420758</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>case129.jpg</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4480641973829985</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.6925098194014557</v>
+      </c>
+      <c r="E86" t="n">
+        <v>119.0483095218072</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>case83.jpg</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.3979783015990588</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6844702430474543</v>
+      </c>
+      <c r="E87" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>case21.jpg</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.5970355338444963</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.8328981054598308</v>
+      </c>
+      <c r="E88" t="n">
+        <v>34.40930106817051</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>case135.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6312731289698978</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.850433018060647</v>
+      </c>
+      <c r="E89" t="n">
+        <v>33.01514803843835</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>case77.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4782294558314636</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7279115406794033</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>case80.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.3731214206096014</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6542593319407733</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16.98528775146303</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>case120.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2998483491988087</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5310346171777806</v>
+      </c>
+      <c r="E92" t="n">
+        <v>45.39273069556402</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>case59.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.2136186352739113</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.4355522715771389</v>
+      </c>
+      <c r="E93" t="n">
+        <v>323.8271143681455</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>case100.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.6666152971884842</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8693477062948229</v>
+      </c>
+      <c r="E94" t="n">
+        <v>28.84441020371191</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>case137.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4839232669227337</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.6915104477652836</v>
+      </c>
+      <c r="E95" t="n">
+        <v>423.5994570345906</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>case8.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5897581635833593</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.8206774187069569</v>
+      </c>
+      <c r="E96" t="n">
+        <v>28.71410803072246</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>case147.jpg</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5598158170391061</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.7931279654767689</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.535533905932738</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>case10.jpg</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4965931299188338</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7547065000527164</v>
+      </c>
+      <c r="E98" t="n">
+        <v>20.65187642806338</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>case40.jpg</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.5198161593285819</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7702324003233032</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5.70087712549569</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>case62.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5564629905613512</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.7989870131448276</v>
+      </c>
+      <c r="E100" t="n">
+        <v>84.85575996949176</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>case146.jpg</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.4501582170107259</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.7233669946941514</v>
+      </c>
+      <c r="E101" t="n">
+        <v>14.14213562373095</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>case50.jpg</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.4269016652876296</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6715174244664274</v>
+      </c>
+      <c r="E102" t="n">
+        <v>35.77708763999664</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>case132.jpg</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.3376616980760391</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.5945871389551347</v>
+      </c>
+      <c r="E103" t="n">
+        <v>28.84441020371191</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>case104.jpg</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5557357697438506</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7684006168739947</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5.70087712549569</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>case78.jpg</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5561087360427152</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.7669375466940187</v>
+      </c>
+      <c r="E105" t="n">
+        <v>657.3887738621645</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>case27.jpg</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.397881009095842</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.6681834164941904</v>
+      </c>
+      <c r="E106" t="n">
+        <v>16.97056274847714</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>case85.jpg</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.4736168007743374</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.7305606239562121</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5.656854249492381</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>case60.jpg</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.499187053351987</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.7495222454421424</v>
+      </c>
+      <c r="E108" t="n">
+        <v>11.33578404875463</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>case110.jpg</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.4710908408625119</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7276349383383132</v>
+      </c>
+      <c r="E109" t="n">
+        <v>24.9899979991996</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>case14.jpg</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5659490043353663</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.7976642760064621</v>
+      </c>
+      <c r="E110" t="n">
+        <v>121.344550763518</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>case107.jpg</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.6161195571479294</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.8373217863166665</v>
+      </c>
+      <c r="E111" t="n">
+        <v>16.50757401921918</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>case122.jpg</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.4396663778162911</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7089359053882699</v>
+      </c>
+      <c r="E112" t="n">
+        <v>16.98528775146303</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>case150.jpg</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.3665478201038344</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6143983285437515</v>
+      </c>
+      <c r="E113" t="n">
+        <v>247.8870710626111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>case45.jpg</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.2770149716856722</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5388473702901215</v>
+      </c>
+      <c r="E114" t="n">
+        <v>56.58621740318043</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>case96.jpg</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.5048477495813991</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.7488509743566358</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.23154621172782</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>case95.jpg</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.5050213036469725</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.7488325172115018</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.70087712549569</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>case70.jpg</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4567455777523541</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6925047816525526</v>
+      </c>
+      <c r="E117" t="n">
+        <v>17.67766952966369</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>case26.jpg</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.6025688866194002</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.824139088765881</v>
+      </c>
+      <c r="E118" t="n">
+        <v>43.36473221409305</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>case102.jpg</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.52608232179086</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.7742640890539514</v>
+      </c>
+      <c r="E119" t="n">
+        <v>45.96194077712559</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>case4.jpg</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2244983188816139</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4469278064559676</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.34908903522847</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>case103.jpg</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4757164883003809</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.7103750384609688</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.64911064067352</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>case13.jpg</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5793675247191955</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.8109006208784284</v>
+      </c>
+      <c r="E122" t="n">
+        <v>8.246211251235321</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>case141.jpg</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4755828016180825</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.72595051012669</v>
+      </c>
+      <c r="E123" t="n">
+        <v>867.6387497109612</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>case84.jpg</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4796351953570318</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.7361801133819174</v>
+      </c>
+      <c r="E124" t="n">
+        <v>28.29310870159022</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>case64.jpg</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5278196089928968</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.7323883480371918</v>
+      </c>
+      <c r="E125" t="n">
+        <v>17.33493582335971</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>case18.jpg</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3366693300469928</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6123572019580884</v>
+      </c>
+      <c r="E126" t="n">
+        <v>28.2842712474619</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>case65.jpg</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5148421937939888</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.758220408764404</v>
+      </c>
+      <c r="E127" t="n">
+        <v>21.64486082191336</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>case25.jpg</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5400764940616453</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.7737866974876333</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.40175425099138</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>case6.jpg</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.50104662226451</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.7496553611763781</v>
+      </c>
+      <c r="E129" t="n">
+        <v>37.63641853311763</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>case42.jpg</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3399731867329859</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.646839060330713</v>
+      </c>
+      <c r="E130" t="n">
+        <v>590.1732796391243</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>case1.jpg</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5839661514658752</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.7927544067744432</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.31370849898476</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>case33.jpg</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5437795517624829</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.7812388480466801</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.656854249492381</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>case118.jpg</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2457456326648652</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4485579007491654</v>
+      </c>
+      <c r="E133" t="n">
+        <v>33.94849039353591</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>case115.jpg</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4146662634972347</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6981452208200791</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28.50438562747845</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>case75.jpg</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5627940644227289</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.7729562339535279</v>
+      </c>
+      <c r="E135" t="n">
+        <v>49.11720676097125</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>case126.jpg</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.4143175671665833</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.6908420819808639</v>
+      </c>
+      <c r="E136" t="n">
+        <v>34.12477106150311</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>case71.jpg</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5679477316308604</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.7968532469301104</v>
+      </c>
+      <c r="E137" t="n">
+        <v>29.96664812754339</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>case16.jpg</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5082579388713993</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.7229510167983393</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.40175425099138</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>case113.jpg</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5678514307834928</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.7996054146310264</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.08304597359457</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>case34.jpg</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.3657747721258454</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6335443479044925</v>
+      </c>
+      <c r="E140" t="n">
+        <v>317.2380809423736</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
           <t>case7.jpg</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.04951977963279115</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1645167060294949</v>
-      </c>
-      <c r="E11" t="n">
-        <v>393.8686329221965</v>
+      <c r="C141" t="n">
+        <v>0.2138933441922697</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.4980193412587009</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30.46309242345563</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>case145.jpg</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4993987168428542</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.7434113831196789</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.33578404875463</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>case101.jpg</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.351579832097028</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.6656629992752772</v>
+      </c>
+      <c r="E143" t="n">
+        <v>13.28533025558642</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>case24.jpg</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5305915048946408</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.7647883049635602</v>
+      </c>
+      <c r="E144" t="n">
+        <v>24.9899979991996</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>case86.jpg</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5464550123390916</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.7892883665367729</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.6619037896906</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>case54.jpg</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3690032724426379</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6454088215456664</v>
+      </c>
+      <c r="E146" t="n">
+        <v>36.50342449688796</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>case112.jpg</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.3104969809568044</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.5674810858177127</v>
+      </c>
+      <c r="E147" t="n">
+        <v>69.25676862227981</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>case36.jpg</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.386669647978379</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6600428432548218</v>
+      </c>
+      <c r="E148" t="n">
+        <v>34.05877273185281</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>case123.jpg</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5937224992666471</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.7931631923718646</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.899494936611665</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>case52.jpg</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5223007923058496</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.7672510925628329</v>
+      </c>
+      <c r="E150" t="n">
+        <v>16.97056274847714</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>case81.jpg</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5108779630272425</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.7430287807850834</v>
+      </c>
+      <c r="E151" t="n">
+        <v>62.22539674441618</v>
       </c>
     </row>
   </sheetData>
